--- a/biology/Botanique/Citrus_×reshni/Citrus_×reshni.xlsx
+++ b/biology/Botanique/Citrus_×reshni/Citrus_×reshni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Citrus_%C3%97reshni</t>
+          <t>Citrus_×reshni</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Citrus ×reshni, le mandarinier Cléopâtre, est une espèce de plantes dicotylédones de la famille des Rutaceae, originaire de l'Inde et introduite en Floride au milieu de XIXe siècle en provenance de la Jamaïque[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Citrus ×reshni, le mandarinier Cléopâtre, est une espèce de plantes dicotylédones de la famille des Rutaceae, originaire de l'Inde et introduite en Floride au milieu de XIXe siècle en provenance de la Jamaïque.
 Ce sont des arbres couramment utilisés en agriculture comme porte-greffe de différentes espèces cultivées d'agrumes, principalement l'oranger, le pamplemoussier, le mandarinier et le citronnier.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Citrus_%C3%97reshni</t>
+          <t>Citrus_×reshni</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre de taille moyenne, au houppier arrondi et symétrique, sans épines, aux feuilles petites de couleur vert foncé. Le fruit de couleur rouge orangé, est petit, aplati et fortement déprimé à l'apex, avec une écorce fine et un peu rugueuse. La texture de la chair est douce et juteuse et la saveur est quelque peu acide. Les graines sont petites, polyembryonnaires et ont des cotylédons verts[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre de taille moyenne, au houppier arrondi et symétrique, sans épines, aux feuilles petites de couleur vert foncé. Le fruit de couleur rouge orangé, est petit, aplati et fortement déprimé à l'apex, avec une écorce fine et un peu rugueuse. La texture de la chair est douce et juteuse et la saveur est quelque peu acide. Les graines sont petites, polyembryonnaires et ont des cotylédons verts.
 La mandarine Cleopatra diverge des tachibana au début du pléistocène. La variété Sun Shu Cha est la génitrice de Rangpur (Citrus limonia).
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Citrus_%C3%97reshni</t>
+          <t>Citrus_×reshni</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit du mandarinier Cléopâtre appartient au groupe des mandarines « acides », qui sont trop acides pour être comestibles. Lorsque ces arbres sont cultivés, c'est pour les utiliser comme porte-greffes ou pour la production de jus[5].
-Comme porte-greffe, il peut supporter des conditions de sol variées. Il est tolérant à la présence de calcaire, à la salinité et à l'alcalinité du sol, tout en étant adapté aux sols peu profonds[2]. Il est résistant au virus de la tristeza des agrumes et à l'exocortis, mais est sensible à l'asphyxie racinaire et au Phytophthora[2],[6].
-L'un des inconvénients de l'utilisation de ce porte-greffe est qu'il pousse lentement dans les premières années. Dans de bonnes conditions, il peut induire une productivité élevée et une excellente qualité de fruit, bien que ceux-ci sont généralement un peu plus petits que les autres[2],[7].
-C'est une plante ornementale attrayante qui porte des fruits toute l'année[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit du mandarinier Cléopâtre appartient au groupe des mandarines « acides », qui sont trop acides pour être comestibles. Lorsque ces arbres sont cultivés, c'est pour les utiliser comme porte-greffes ou pour la production de jus.
+Comme porte-greffe, il peut supporter des conditions de sol variées. Il est tolérant à la présence de calcaire, à la salinité et à l'alcalinité du sol, tout en étant adapté aux sols peu profonds. Il est résistant au virus de la tristeza des agrumes et à l'exocortis, mais est sensible à l'asphyxie racinaire et au Phytophthora,.
+L'un des inconvénients de l'utilisation de ce porte-greffe est qu'il pousse lentement dans les premières années. Dans de bonnes conditions, il peut induire une productivité élevée et une excellente qualité de fruit, bien que ceux-ci sont généralement un peu plus petits que les autres,.
+C'est une plante ornementale attrayante qui porte des fruits toute l'année.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Citrus_%C3%97reshni</t>
+          <t>Citrus_×reshni</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +594,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la base de données Plants of the World Online, qui le recense sous le nom de Citrus reshni (Engl.) Yu.Tanaka, il s'agirait d'un synonyme de Citrus ×aurantium L[8].
-L'espèce a été publiée en premier en 1935 par le botaniste japonais, Yuichiro Tanaka, dans Studia Citrologica. 7: 68 (1935)[8].
-Synonymes
-Selon The Plant List            (29 décembre 2020)[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données Plants of the World Online, qui le recense sous le nom de Citrus reshni (Engl.) Yu.Tanaka, il s'agirait d'un synonyme de Citrus ×aurantium L.
+L'espèce a été publiée en premier en 1935 par le botaniste japonais, Yuichiro Tanaka, dans Studia Citrologica. 7: 68 (1935).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Citrus_×reshni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citrus_%C3%97reshni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (29 décembre 2020) :
 Aurantium acre Mill.
 Aurantium bigarella Poit. &amp; Turpin
 Aurantium corniculatum Poit. &amp; Turpin
@@ -612,8 +665,43 @@
 Citrus taiwanica Yu.Tanaka &amp; Shimada
 Citrus vulgaris Risso
 Citrus yatsushiro Yu.Tanaka
-Variétés
-Selon Tropicos                                           (29 décembre 2020)[1] : Citrus reshni var. kodakithuli.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Citrus_×reshni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citrus_%C3%97reshni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (29 décembre 2020) : Citrus reshni var. kodakithuli.
 Heen naran, Citrus lycopersicaeformis.</t>
         </is>
       </c>
